--- a/data/trans_orig/P41D_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Dificultad-trans_orig.xlsx
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3504</v>
+        <v>3317</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1683702280282925</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7653415861337808</v>
+        <v>0.7244117282453139</v>
       </c>
     </row>
     <row r="8">
@@ -1023,7 +1023,7 @@
         <v>3808</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1075</v>
+        <v>1262</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>4579</v>
@@ -1032,7 +1032,7 @@
         <v>0.8316297719717075</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2346584138662209</v>
+        <v>0.2755882717546865</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3217</v>
+        <v>2528</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1728171458154273</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7061068878762635</v>
+        <v>0.5547750757388287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1164,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4325</v>
+        <v>4178</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06908847695871384</v>
+        <v>0.06908847695871385</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3795332644410992</v>
+        <v>0.3666630354570222</v>
       </c>
     </row>
     <row r="11">
@@ -1203,16 +1203,16 @@
         <v>3769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1356</v>
+        <v>2028</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>4556</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8271828541845728</v>
+        <v>0.8271828541845727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2976635535117021</v>
+        <v>0.4452249242611713</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1224,16 +1224,16 @@
         <v>10609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7071</v>
+        <v>7218</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>11396</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.930911523041286</v>
+        <v>0.9309115230412862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.620466735558901</v>
+        <v>0.6333369645429726</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5647</v>
+        <v>4664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2889681151817631</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.787421766658996</v>
+        <v>0.650318124808144</v>
       </c>
     </row>
     <row r="14">
@@ -1425,16 +1425,16 @@
         <v>5100</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1525</v>
+        <v>2508</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>7172</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7110318848182371</v>
+        <v>0.7110318848182369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2125782333410039</v>
+        <v>0.349681875191856</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1550,19 +1550,19 @@
         <v>3631</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3056370857670518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1571,19 +1571,19 @@
         <v>4893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1878380836554621</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="17">
@@ -1600,7 +1600,7 @@
         <v>12908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7865</v>
+        <v>8039</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>14170</v>
@@ -1609,7 +1609,7 @@
         <v>0.9109213599502727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5550706432425395</v>
+        <v>0.5673323766964378</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1621,19 +1621,19 @@
         <v>8249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4713</v>
+        <v>5016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10743</v>
+        <v>11076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6943629142329483</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3967335746573267</v>
+        <v>0.4222290897840092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9043086761564232</v>
+        <v>0.9322832115002229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1642,19 +1642,19 @@
         <v>21157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16142</v>
+        <v>15961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24529</v>
+        <v>24436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.812161916344538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6196371723334757</v>
+        <v>0.6127060853799424</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9415986025534391</v>
+        <v>0.9380325082664424</v>
       </c>
     </row>
     <row r="18">
